--- a/biology/Botanique/Garfield_Park/Garfield_Park.xlsx
+++ b/biology/Botanique/Garfield_Park/Garfield_Park.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Garfield Park est un parc d'une superficie d'environ 0,74 km2 situé au 100 N. Central Park Ave. dans le secteur d'East Garfield Park, un des 77 secteurs de la ville de Chicago (Illinois, États-Unis). Conçu en 1907 par William Le Baron Jenney, Garfield Park est le plus ancien des trois grands parcs du West Side de Chicago, les deux autres étant Humboldt Park et Douglas Park.
